--- a/res/2e helft versie 1 februari 2024.xlsx
+++ b/res/2e helft versie 1 februari 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ACTIVE\AetosClubApp\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA471EC-4FF3-481C-9926-B7164EC19D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB4760-DE3A-45C9-9EFD-57A7059D87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A318BE65-6D6D-41AD-AE11-B39048415C6E}"/>
   </bookViews>
@@ -1103,17 +1103,17 @@
   <dimension ref="A1:H183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A159" sqref="A159:XFD159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.26953125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.08984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" style="2"/>
     <col min="7" max="8" width="9.1796875" style="1"/>
   </cols>
